--- a/estimates/taxReform2000.xlsx
+++ b/estimates/taxReform2000.xlsx
@@ -574,8 +574,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -899,9 +902,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.7109375" customWidth="1"/>
+    <col min="12" max="12" width="48.42578125" customWidth="1"/>
+    <col min="13" max="13" width="49.85546875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -940,7 +960,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -984,7 +1004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1003,7 +1023,7 @@
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
